--- a/EPL_SPREAD.xlsx
+++ b/EPL_SPREAD.xlsx
@@ -4351,7 +4351,7 @@
         <v>30.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
@@ -4557,7 +4557,7 @@
         <v>0.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="BO7" t="n">
         <v>0.0</v>
@@ -7853,7 +7853,7 @@
         <v>19.0</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="BO23" t="n">
         <v>1.0</v>
@@ -8883,7 +8883,7 @@
         <v>0.0</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BO28" t="n">
         <v>0.0</v>
@@ -9089,7 +9089,7 @@
         <v>0.0</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BO29" t="n">
         <v>1.0</v>
@@ -11149,7 +11149,7 @@
         <v>26.0</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="BO39" t="n">
         <v>0.0</v>
@@ -13827,7 +13827,7 @@
         <v>46.0</v>
       </c>
       <c r="BN52" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BO52" t="n">
         <v>1.0</v>
@@ -15269,7 +15269,7 @@
         <v>36.0</v>
       </c>
       <c r="BN59" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="BO59" t="n">
         <v>1.0</v>
@@ -15475,7 +15475,7 @@
         <v>0.0</v>
       </c>
       <c r="BN60" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BO60" t="n">
         <v>0.0</v>
@@ -15887,7 +15887,7 @@
         <v>33.0</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BO62" t="n">
         <v>2.0</v>
@@ -16093,7 +16093,7 @@
         <v>66.0</v>
       </c>
       <c r="BN63" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="BO63" t="n">
         <v>0.0</v>
@@ -18771,7 +18771,7 @@
         <v>10.0</v>
       </c>
       <c r="BN76" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BO76" t="n">
         <v>0.0</v>
@@ -18977,7 +18977,7 @@
         <v>84.0</v>
       </c>
       <c r="BN77" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="BO77" t="n">
         <v>0.0</v>
@@ -21037,7 +21037,7 @@
         <v>0.0</v>
       </c>
       <c r="BN87" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="BO87" t="n">
         <v>0.0</v>
@@ -21655,7 +21655,7 @@
         <v>54.0</v>
       </c>
       <c r="BN90" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="BO90" t="n">
         <v>1.0</v>
@@ -21861,7 +21861,7 @@
         <v>0.0</v>
       </c>
       <c r="BN91" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BO91" t="n">
         <v>0.0</v>
@@ -22479,7 +22479,7 @@
         <v>60.0</v>
       </c>
       <c r="BN94" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="BO94" t="n">
         <v>1.0</v>
@@ -23509,7 +23509,7 @@
         <v>73.0</v>
       </c>
       <c r="BN99" t="n">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
       <c r="BO99" t="n">
         <v>0.0</v>
@@ -24539,7 +24539,7 @@
         <v>16.0</v>
       </c>
       <c r="BN104" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="BO104" t="n">
         <v>0.0</v>
@@ -24951,7 +24951,7 @@
         <v>32.0</v>
       </c>
       <c r="BN106" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BO106" t="n">
         <v>0.0</v>
@@ -26393,7 +26393,7 @@
         <v>93.0</v>
       </c>
       <c r="BN113" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="BO113" t="n">
         <v>0.0</v>
@@ -26805,7 +26805,7 @@
         <v>74.0</v>
       </c>
       <c r="BN115" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="BO115" t="n">
         <v>0.0</v>
@@ -29689,7 +29689,7 @@
         <v>27.0</v>
       </c>
       <c r="BN129" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="BO129" t="n">
         <v>0.0</v>
@@ -29895,7 +29895,7 @@
         <v>0.0</v>
       </c>
       <c r="BN130" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BO130" t="n">
         <v>1.0</v>
@@ -30925,7 +30925,7 @@
         <v>0.0</v>
       </c>
       <c r="BN135" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="BO135" t="n">
         <v>0.0</v>
@@ -31955,7 +31955,7 @@
         <v>0.0</v>
       </c>
       <c r="BN140" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO140" t="n">
         <v>0.0</v>
@@ -33191,7 +33191,7 @@
         <v>76.0</v>
       </c>
       <c r="BN146" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="BO146" t="n">
         <v>0.0</v>
@@ -33809,7 +33809,7 @@
         <v>0.0</v>
       </c>
       <c r="BN149" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="BO149" t="n">
         <v>1.0</v>
@@ -34015,7 +34015,7 @@
         <v>0.0</v>
       </c>
       <c r="BN150" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BO150" t="n">
         <v>0.0</v>
@@ -34633,7 +34633,7 @@
         <v>14.0</v>
       </c>
       <c r="BN153" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BO153" t="n">
         <v>0.0</v>
@@ -35251,7 +35251,7 @@
         <v>32.0</v>
       </c>
       <c r="BN156" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BO156" t="n">
         <v>0.0</v>
@@ -37105,7 +37105,7 @@
         <v>70.0</v>
       </c>
       <c r="BN165" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="BO165" t="n">
         <v>0.0</v>
@@ -37311,7 +37311,7 @@
         <v>82.0</v>
       </c>
       <c r="BN166" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BO166" t="n">
         <v>0.0</v>
@@ -40401,7 +40401,7 @@
         <v>62.0</v>
       </c>
       <c r="BN181" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="BO181" t="n">
         <v>1.0</v>
@@ -40607,7 +40607,7 @@
         <v>0.0</v>
       </c>
       <c r="BN182" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BO182" t="n">
         <v>0.0</v>
@@ -42049,7 +42049,7 @@
         <v>0.0</v>
       </c>
       <c r="BN189" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="BO189" t="n">
         <v>1.0</v>
@@ -42667,7 +42667,7 @@
         <v>47.0</v>
       </c>
       <c r="BN192" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO192" t="n">
         <v>0.0</v>
@@ -44109,7 +44109,7 @@
         <v>0.0</v>
       </c>
       <c r="BN199" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="BO199" t="n">
         <v>0.0</v>
@@ -44315,7 +44315,7 @@
         <v>0.0</v>
       </c>
       <c r="BN200" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="BO200" t="n">
         <v>0.0</v>
@@ -46375,7 +46375,7 @@
         <v>40.0</v>
       </c>
       <c r="BN210" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BO210" t="n">
         <v>0.0</v>
@@ -48435,7 +48435,7 @@
         <v>0.0</v>
       </c>
       <c r="BN220" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="BO220" t="n">
         <v>0.0</v>
@@ -49259,7 +49259,7 @@
         <v>0.0</v>
       </c>
       <c r="BN224" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BO224" t="n">
         <v>0.0</v>
@@ -49877,7 +49877,7 @@
         <v>37.0</v>
       </c>
       <c r="BN227" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO227" t="n">
         <v>0.0</v>
@@ -50289,7 +50289,7 @@
         <v>0.0</v>
       </c>
       <c r="BN229" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="BO229" t="n">
         <v>0.0</v>
@@ -50495,7 +50495,7 @@
         <v>54.0</v>
       </c>
       <c r="BN230" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="BO230" t="n">
         <v>0.0</v>
@@ -51937,7 +51937,7 @@
         <v>0.0</v>
       </c>
       <c r="BN237" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="BO237" t="n">
         <v>1.0</v>
@@ -53585,7 +53585,7 @@
         <v>66.0</v>
       </c>
       <c r="BN245" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="BO245" t="n">
         <v>0.0</v>
@@ -54409,7 +54409,7 @@
         <v>87.0</v>
       </c>
       <c r="BN249" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="BO249" t="n">
         <v>0.0</v>
@@ -56057,7 +56057,7 @@
         <v>0.0</v>
       </c>
       <c r="BN257" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="BO257" t="n">
         <v>0.0</v>
@@ -57293,7 +57293,7 @@
         <v>85.0</v>
       </c>
       <c r="BN263" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="BO263" t="n">
         <v>0.0</v>
@@ -58323,7 +58323,7 @@
         <v>68.0</v>
       </c>
       <c r="BN268" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="BO268" t="n">
         <v>0.0</v>
@@ -58529,7 +58529,7 @@
         <v>0.0</v>
       </c>
       <c r="BN269" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BO269" t="n">
         <v>0.0</v>
@@ -59765,7 +59765,7 @@
         <v>19.0</v>
       </c>
       <c r="BN275" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="BO275" t="n">
         <v>0.0</v>
@@ -60383,7 +60383,7 @@
         <v>47.0</v>
       </c>
       <c r="BN278" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO278" t="n">
         <v>1.0</v>
@@ -63679,7 +63679,7 @@
         <v>67.0</v>
       </c>
       <c r="BN294" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BO294" t="n">
         <v>0.0</v>
@@ -63885,7 +63885,7 @@
         <v>81.0</v>
       </c>
       <c r="BN295" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="BO295" t="n">
         <v>1.0</v>
@@ -64091,7 +64091,7 @@
         <v>0.0</v>
       </c>
       <c r="BN296" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="BO296" t="n">
         <v>0.0</v>
@@ -64503,7 +64503,7 @@
         <v>54.0</v>
       </c>
       <c r="BN298" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="BO298" t="n">
         <v>0.0</v>
@@ -65533,7 +65533,7 @@
         <v>87.0</v>
       </c>
       <c r="BN303" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="BO303" t="n">
         <v>0.0</v>
@@ -68005,7 +68005,7 @@
         <v>27.0</v>
       </c>
       <c r="BN315" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="BO315" t="n">
         <v>0.0</v>
@@ -68623,7 +68623,7 @@
         <v>0.0</v>
       </c>
       <c r="BN318" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="BO318" t="n">
         <v>1.0</v>
@@ -69035,7 +69035,7 @@
         <v>0.0</v>
       </c>
       <c r="BN320" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BO320" t="n">
         <v>1.0</v>
@@ -70271,7 +70271,7 @@
         <v>0.0</v>
       </c>
       <c r="BN326" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="BO326" t="n">
         <v>0.0</v>
@@ -71301,7 +71301,7 @@
         <v>0.0</v>
       </c>
       <c r="BN331" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BO331" t="n">
         <v>0.0</v>
@@ -72125,7 +72125,7 @@
         <v>37.0</v>
       </c>
       <c r="BN335" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO335" t="n">
         <v>0.0</v>
@@ -72331,7 +72331,7 @@
         <v>37.0</v>
       </c>
       <c r="BN336" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO336" t="n">
         <v>1.0</v>
@@ -72537,7 +72537,7 @@
         <v>0.0</v>
       </c>
       <c r="BN337" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BO337" t="n">
         <v>0.0</v>
@@ -72743,7 +72743,7 @@
         <v>30.0</v>
       </c>
       <c r="BN338" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BO338" t="n">
         <v>0.0</v>
@@ -72949,7 +72949,7 @@
         <v>83.0</v>
       </c>
       <c r="BN339" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="BO339" t="n">
         <v>0.0</v>
@@ -74803,7 +74803,7 @@
         <v>67.0</v>
       </c>
       <c r="BN348" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BO348" t="n">
         <v>0.0</v>
@@ -76039,7 +76039,7 @@
         <v>41.0</v>
       </c>
       <c r="BN354" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="BO354" t="n">
         <v>2.0</v>
@@ -77069,7 +77069,7 @@
         <v>0.0</v>
       </c>
       <c r="BN359" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="BO359" t="n">
         <v>1.0</v>
@@ -78717,7 +78717,7 @@
         <v>71.0</v>
       </c>
       <c r="BN367" t="n">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
       <c r="BO367" t="n">
         <v>0.0</v>
@@ -80365,7 +80365,7 @@
         <v>0.0</v>
       </c>
       <c r="BN375" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="BO375" t="n">
         <v>0.0</v>
@@ -81395,7 +81395,7 @@
         <v>75.0</v>
       </c>
       <c r="BN380" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="BO380" t="n">
         <v>0.0</v>
@@ -81601,7 +81601,7 @@
         <v>0.0</v>
       </c>
       <c r="BN381" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BO381" t="n">
         <v>0.0</v>

--- a/EPL_SPREAD.xlsx
+++ b/EPL_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="303">
   <si>
     <t>Div</t>
   </si>
@@ -374,6 +374,36 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -479,6 +509,9 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
     <t>0-3</t>
   </si>
   <si>
@@ -599,6 +632,9 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>7-6</t>
   </si>
   <si>
@@ -620,6 +656,24 @@
     <t>9-1</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>17-0</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -776,6 +830,36 @@
     <t>Man City-Arsenal</t>
   </si>
   <si>
+    <t>Newcastle-Man City</t>
+  </si>
+  <si>
+    <t>Arsenal-Leicester</t>
+  </si>
+  <si>
+    <t>Brentford-West Ham</t>
+  </si>
+  <si>
+    <t>Chelsea-Brighton</t>
+  </si>
+  <si>
+    <t>Everton-Crystal Palace</t>
+  </si>
+  <si>
+    <t>Nottm Forest-Fulham</t>
+  </si>
+  <si>
+    <t>Wolves-Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich-Aston Villa</t>
+  </si>
+  <si>
+    <t>Man United-Tottenham</t>
+  </si>
+  <si>
+    <t>Bournemouth-Southampton</t>
+  </si>
+  <si>
     <t>R Jones</t>
   </si>
   <si>
@@ -834,6 +918,9 @@
   </si>
   <si>
     <t>J Brooks</t>
+  </si>
+  <si>
+    <t>A Madley</t>
   </si>
 </sst>
 </file>
@@ -1106,16 +1193,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1124,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1133,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L2" t="n">
         <v>1.63</v>
@@ -1145,10 +1232,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1196,16 +1283,16 @@
         <v>22.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AG2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ2" t="n">
         <v>5.0</v>
@@ -1214,10 +1301,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AM2" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AN2" t="n">
         <v>2.4</v>
@@ -1321,16 +1408,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1339,7 +1426,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1348,7 +1435,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L3" t="n">
         <v>8.18</v>
@@ -1360,10 +1447,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1411,16 +1498,16 @@
         <v>27.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AG3" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1429,10 +1516,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AM3" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AN3" t="n">
         <v>0.5</v>
@@ -1536,16 +1623,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1554,7 +1641,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1563,7 +1650,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L4" t="n">
         <v>1.16</v>
@@ -1575,10 +1662,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="Q4" t="n">
         <v>18.0</v>
@@ -1626,16 +1713,16 @@
         <v>31.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AG4" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1644,10 +1731,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AM4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AN4" t="n">
         <v>1.2</v>
@@ -1751,16 +1838,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1769,7 +1856,7 @@
         <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1778,7 +1865,7 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L5" t="n">
         <v>2.73</v>
@@ -1790,10 +1877,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="n">
         <v>9.0</v>
@@ -1841,16 +1928,16 @@
         <v>16.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AG5" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH5" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -1859,10 +1946,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AM5" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AN5" t="n">
         <v>0.5</v>
@@ -1966,16 +2053,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -1984,7 +2071,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -1993,7 +2080,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -2005,10 +2092,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q6" t="n">
         <v>3.0</v>
@@ -2056,16 +2143,16 @@
         <v>31.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AG6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.0</v>
@@ -2074,10 +2161,10 @@
         <v>1.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="AM6" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AN6" t="n">
         <v>0.3</v>
@@ -2181,16 +2268,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2199,7 +2286,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
@@ -2208,7 +2295,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L7" t="n">
         <v>2.47</v>
@@ -2220,10 +2307,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q7" t="n">
         <v>14.0</v>
@@ -2271,16 +2358,16 @@
         <v>25.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AG7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2289,10 +2376,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="AM7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AN7" t="n">
         <v>1.3</v>
@@ -2396,16 +2483,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2414,7 +2501,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
@@ -2423,7 +2510,7 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L8" t="n">
         <v>2.49</v>
@@ -2435,10 +2522,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q8" t="n">
         <v>14.0</v>
@@ -2486,16 +2573,16 @@
         <v>29.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AG8" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH8" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI8" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ8" t="n">
         <v>3.0</v>
@@ -2504,10 +2591,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="AM8" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="AN8" t="n">
         <v>2.3</v>
@@ -2611,16 +2698,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2629,7 +2716,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -2638,7 +2725,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L9" t="n">
         <v>2.5</v>
@@ -2650,10 +2737,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q9" t="n">
         <v>9.0</v>
@@ -2701,16 +2788,16 @@
         <v>21.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AG9" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH9" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI9" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.0</v>
@@ -2719,10 +2806,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="AM9" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AN9" t="n">
         <v>1.6</v>
@@ -2826,16 +2913,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2844,7 +2931,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -2853,7 +2940,7 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L10" t="n">
         <v>4.19</v>
@@ -2865,10 +2952,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="n">
         <v>10.0</v>
@@ -2916,16 +3003,16 @@
         <v>21.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AG10" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH10" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI10" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ10" t="n">
         <v>2.0</v>
@@ -2934,10 +3021,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AM10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AN10" t="n">
         <v>1.0</v>
@@ -3041,16 +3128,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3059,7 +3146,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3068,7 +3155,7 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L11" t="n">
         <v>5.09</v>
@@ -3080,10 +3167,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q11" t="n">
         <v>7.0</v>
@@ -3131,16 +3218,16 @@
         <v>23.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="AG11" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH11" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI11" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ11" t="n">
         <v>2.0</v>
@@ -3149,10 +3236,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AM11" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AN11" t="n">
         <v>1.0</v>
@@ -3256,17 +3343,17 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
         <v>131</v>
       </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
       <c r="F12" t="n">
         <v>2.0</v>
       </c>
@@ -3274,7 +3361,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3283,7 +3370,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L12" t="n">
         <v>2.51</v>
@@ -3295,10 +3382,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q12" t="n">
         <v>14.0</v>
@@ -3346,16 +3433,16 @@
         <v>22.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AG12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI12" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ12" t="n">
         <v>3.0</v>
@@ -3364,10 +3451,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="AM12" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AN12" t="n">
         <v>2.1</v>
@@ -3471,16 +3558,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -3489,7 +3576,7 @@
         <v>2.0</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3498,7 +3585,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L13" t="n">
         <v>2.17</v>
@@ -3510,10 +3597,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q13" t="n">
         <v>14.0</v>
@@ -3561,16 +3648,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AG13" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH13" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI13" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ13" t="n">
         <v>2.0</v>
@@ -3579,10 +3666,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="AM13" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AN13" t="n">
         <v>1.3</v>
@@ -3686,16 +3773,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3704,7 +3791,7 @@
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
@@ -3713,7 +3800,7 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L14" t="n">
         <v>1.84</v>
@@ -3725,10 +3812,10 @@
         <v>4.56</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -3776,16 +3863,16 @@
         <v>27.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH14" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI14" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.0</v>
@@ -3794,10 +3881,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="AM14" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="AN14" t="n">
         <v>1.8</v>
@@ -3901,16 +3988,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F15" t="n">
         <v>4.0</v>
@@ -3919,7 +4006,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I15" t="n">
         <v>3.0</v>
@@ -3928,7 +4015,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L15" t="n">
         <v>1.08</v>
@@ -3940,10 +4027,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="n">
         <v>14.0</v>
@@ -3991,16 +4078,16 @@
         <v>19.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH15" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI15" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.0</v>
@@ -4009,10 +4096,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="AM15" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="AN15" t="n">
         <v>3.3</v>
@@ -4116,16 +4203,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4134,7 +4221,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4143,7 +4230,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L16" t="n">
         <v>2.59</v>
@@ -4155,10 +4242,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4206,16 +4293,16 @@
         <v>28.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ16" t="n">
         <v>6.0</v>
@@ -4224,10 +4311,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AM16" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AN16" t="n">
         <v>0.1</v>
@@ -4331,16 +4418,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
         <v>4.0</v>
@@ -4349,7 +4436,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4358,7 +4445,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -4370,10 +4457,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q17" t="n">
         <v>13.0</v>
@@ -4421,16 +4508,16 @@
         <v>26.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH17" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI17" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -4439,10 +4526,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="AM17" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AN17" t="n">
         <v>2.4</v>
@@ -4546,16 +4633,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -4564,7 +4651,7 @@
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -4573,7 +4660,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L18" t="n">
         <v>4.55</v>
@@ -4585,10 +4672,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="n">
         <v>11.0</v>
@@ -4636,16 +4723,16 @@
         <v>23.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH18" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI18" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ18" t="n">
         <v>4.0</v>
@@ -4654,10 +4741,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="AM18" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AN18" t="n">
         <v>1.2</v>
@@ -4761,16 +4848,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -4779,7 +4866,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4788,7 +4875,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L19" t="n">
         <v>3.05</v>
@@ -4800,10 +4887,10 @@
         <v>2.28</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -4851,16 +4938,16 @@
         <v>27.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ19" t="n">
         <v>4.0</v>
@@ -4869,10 +4956,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="AM19" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AN19" t="n">
         <v>2.2</v>
@@ -4976,16 +5063,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>129</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -4994,7 +5081,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I20" t="n">
         <v>2.0</v>
@@ -5003,7 +5090,7 @@
         <v>2.0</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L20" t="n">
         <v>4.46</v>
@@ -5015,10 +5102,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q20" t="n">
         <v>12.0</v>
@@ -5066,16 +5153,16 @@
         <v>26.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5084,10 +5171,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AM20" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="AN20" t="n">
         <v>1.9</v>
@@ -5191,16 +5278,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5209,7 +5296,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -5218,7 +5305,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -5230,10 +5317,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="Q21" t="n">
         <v>19.0</v>
@@ -5281,16 +5368,16 @@
         <v>17.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH21" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI21" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -5299,10 +5386,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AN21" t="n">
         <v>2.5</v>
@@ -5406,16 +5493,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5424,7 +5511,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5433,7 +5520,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -5445,10 +5532,10 @@
         <v>8.1</v>
       </c>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -5496,16 +5583,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH22" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI22" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ22" t="n">
         <v>5.0</v>
@@ -5514,10 +5601,10 @@
         <v>1.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AN22" t="n">
         <v>2.1</v>
@@ -5621,16 +5708,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -5639,7 +5726,7 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -5648,7 +5735,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L23" t="n">
         <v>1.79</v>
@@ -5660,10 +5747,10 @@
         <v>4.51</v>
       </c>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q23" t="n">
         <v>20.0</v>
@@ -5711,16 +5798,16 @@
         <v>17.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH23" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI23" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ23" t="n">
         <v>3.0</v>
@@ -5729,10 +5816,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="AN23" t="n">
         <v>2.8</v>
@@ -5836,16 +5923,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -5854,7 +5941,7 @@
         <v>3.0</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5863,7 +5950,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L24" t="n">
         <v>2.82</v>
@@ -5875,10 +5962,10 @@
         <v>2.62</v>
       </c>
       <c r="O24" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="n">
         <v>18.0</v>
@@ -5926,16 +6013,16 @@
         <v>7.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH24" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI24" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ24" t="n">
         <v>3.0</v>
@@ -5944,10 +6031,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AN24" t="n">
         <v>1.8</v>
@@ -6051,16 +6138,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6069,7 +6156,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
@@ -6078,7 +6165,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L25" t="n">
         <v>3.14</v>
@@ -6090,10 +6177,10 @@
         <v>2.32</v>
       </c>
       <c r="O25" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q25" t="n">
         <v>11.0</v>
@@ -6141,16 +6228,16 @@
         <v>30.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH25" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI25" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ25" t="n">
         <v>5.0</v>
@@ -6159,10 +6246,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="AN25" t="n">
         <v>0.4</v>
@@ -6266,16 +6353,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6284,7 +6371,7 @@
         <v>2.0</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6293,7 +6380,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L26" t="n">
         <v>4.8</v>
@@ -6305,10 +6392,10 @@
         <v>1.71</v>
       </c>
       <c r="O26" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q26" t="n">
         <v>9.0</v>
@@ -6356,16 +6443,16 @@
         <v>34.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH26" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI26" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.0</v>
@@ -6374,10 +6461,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AN26" t="n">
         <v>0.4</v>
@@ -6481,16 +6568,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -6499,7 +6586,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -6508,7 +6595,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L27" t="n">
         <v>2.02</v>
@@ -6520,10 +6607,10 @@
         <v>3.71</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="n">
         <v>16.0</v>
@@ -6571,16 +6658,16 @@
         <v>33.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH27" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI27" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -6589,10 +6676,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="n">
         <v>1.0</v>
@@ -6696,16 +6783,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6714,7 +6801,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6723,7 +6810,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L28" t="n">
         <v>7.69</v>
@@ -6735,10 +6822,10 @@
         <v>1.37</v>
       </c>
       <c r="O28" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -6786,16 +6873,16 @@
         <v>13.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH28" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI28" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -6804,10 +6891,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="n">
         <v>0.7</v>
@@ -6911,16 +6998,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -6929,7 +7016,7 @@
         <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -6938,7 +7025,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L29" t="n">
         <v>1.63</v>
@@ -6950,10 +7037,10 @@
         <v>5.06</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q29" t="n">
         <v>13.0</v>
@@ -7001,16 +7088,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH29" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI29" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ29" t="n">
         <v>6.0</v>
@@ -7019,10 +7106,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7126,16 +7213,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7144,7 +7231,7 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -7153,7 +7240,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L30" t="n">
         <v>2.5</v>
@@ -7165,10 +7252,10 @@
         <v>2.62</v>
       </c>
       <c r="O30" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q30" t="n">
         <v>9.0</v>
@@ -7216,16 +7303,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AG30" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH30" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI30" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.0</v>
@@ -7234,10 +7321,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="n">
         <v>1.8</v>
@@ -7341,16 +7428,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7359,7 +7446,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7368,7 +7455,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L31" t="n">
         <v>3.93</v>
@@ -7380,10 +7467,10 @@
         <v>1.82</v>
       </c>
       <c r="O31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q31" t="n">
         <v>8.0</v>
@@ -7431,16 +7518,16 @@
         <v>14.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH31" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI31" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ31" t="n">
         <v>5.0</v>
@@ -7449,10 +7536,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="n">
         <v>1.4</v>
@@ -7556,16 +7643,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -7574,7 +7661,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -7583,7 +7670,7 @@
         <v>2.0</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L32" t="n">
         <v>4.5</v>
@@ -7595,10 +7682,10 @@
         <v>1.74</v>
       </c>
       <c r="O32" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q32" t="n">
         <v>6.0</v>
@@ -7646,16 +7733,16 @@
         <v>25.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AG32" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH32" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI32" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -7664,10 +7751,10 @@
         <v>1.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="n">
         <v>1.1</v>
@@ -7771,16 +7858,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -7789,7 +7876,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -7798,7 +7885,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -7810,10 +7897,10 @@
         <v>8.05</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q33" t="n">
         <v>21.0</v>
@@ -7861,16 +7948,16 @@
         <v>30.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG33" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH33" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI33" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ33" t="n">
         <v>7.0</v>
@@ -7879,10 +7966,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AM33" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="n">
         <v>1.6</v>
@@ -7986,16 +8073,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -8004,7 +8091,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -8013,7 +8100,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L34" t="n">
         <v>1.62</v>
@@ -8025,10 +8112,10 @@
         <v>5.48</v>
       </c>
       <c r="O34" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q34" t="n">
         <v>20.0</v>
@@ -8076,16 +8163,16 @@
         <v>26.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AG34" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH34" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI34" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ34" t="n">
         <v>3.0</v>
@@ -8094,10 +8181,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AM34" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="n">
         <v>2.5</v>
@@ -8201,16 +8288,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8219,7 +8306,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -8228,7 +8315,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L35" t="n">
         <v>2.4</v>
@@ -8240,10 +8327,10 @@
         <v>2.97</v>
       </c>
       <c r="O35" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q35" t="n">
         <v>21.0</v>
@@ -8291,16 +8378,16 @@
         <v>33.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AG35" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH35" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI35" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -8309,10 +8396,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="AM35" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AN35" t="n">
         <v>1.5</v>
@@ -8416,16 +8503,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -8434,7 +8521,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -8443,7 +8530,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L36" t="n">
         <v>1.21</v>
@@ -8455,13 +8542,13 @@
         <v>12.71</v>
       </c>
       <c r="O36" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="R36" t="n">
         <v>5.0</v>
@@ -8506,16 +8593,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AG36" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH36" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI36" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.0</v>
@@ -8524,10 +8611,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AM36" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AN36" t="n">
         <v>0.9</v>
@@ -8631,16 +8718,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -8649,7 +8736,7 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
@@ -8658,7 +8745,7 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L37" t="n">
         <v>1.17</v>
@@ -8670,10 +8757,10 @@
         <v>14.62</v>
       </c>
       <c r="O37" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q37" t="n">
         <v>18.0</v>
@@ -8721,16 +8808,16 @@
         <v>12.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH37" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI37" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ37" t="n">
         <v>4.0</v>
@@ -8739,10 +8826,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AM37" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="AN37" t="n">
         <v>2.1</v>
@@ -8846,16 +8933,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -8864,7 +8951,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -8873,7 +8960,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L38" t="n">
         <v>1.51</v>
@@ -8885,10 +8972,10 @@
         <v>6.48</v>
       </c>
       <c r="O38" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q38" t="n">
         <v>17.0</v>
@@ -8936,16 +9023,16 @@
         <v>22.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH38" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI38" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ38" t="n">
         <v>5.0</v>
@@ -8954,10 +9041,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="AM38" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AN38" t="n">
         <v>2.1</v>
@@ -9061,16 +9148,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -9079,7 +9166,7 @@
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -9088,7 +9175,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L39" t="n">
         <v>3.32</v>
@@ -9100,79 +9187,79 @@
         <v>2.06</v>
       </c>
       <c r="O39" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="S39" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z39" t="n">
         <v>3.0</v>
       </c>
-      <c r="V39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AA39" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC39" t="n">
         <v>1.0</v>
       </c>
       <c r="AD39" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE39" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>14.0</v>
       </c>
-      <c r="AF39" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>6.0</v>
-      </c>
       <c r="AK39" t="n">
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AM39" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="n">
         <v>1.7</v>
@@ -9268,7 +9355,7 @@
         <v>1.0</v>
       </c>
       <c r="BS39" t="n">
-        <v>70.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="40">
@@ -9276,16 +9363,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -9294,7 +9381,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -9303,7 +9390,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L40" t="n">
         <v>3.03</v>
@@ -9315,10 +9402,10 @@
         <v>2.32</v>
       </c>
       <c r="O40" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q40" t="n">
         <v>15.0</v>
@@ -9366,16 +9453,16 @@
         <v>23.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AG40" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH40" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI40" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -9384,10 +9471,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AM40" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AN40" t="n">
         <v>0.7</v>
@@ -9491,16 +9578,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9509,7 +9596,7 @@
         <v>2.0</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -9518,7 +9605,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L41" t="n">
         <v>3.41</v>
@@ -9530,10 +9617,10 @@
         <v>2.1</v>
       </c>
       <c r="O41" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q41" t="n">
         <v>12.0</v>
@@ -9581,16 +9668,16 @@
         <v>23.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH41" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI41" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ41" t="n">
         <v>6.0</v>
@@ -9599,10 +9686,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AN41" t="n">
         <v>1.2</v>
@@ -9706,16 +9793,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -9724,7 +9811,7 @@
         <v>3.0</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -9733,7 +9820,7 @@
         <v>2.0</v>
       </c>
       <c r="K42" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L42" t="n">
         <v>3.59</v>
@@ -9745,10 +9832,10 @@
         <v>1.99</v>
       </c>
       <c r="O42" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q42" t="n">
         <v>15.0</v>
@@ -9796,16 +9883,16 @@
         <v>26.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AG42" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH42" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI42" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ42" t="n">
         <v>7.0</v>
@@ -9814,10 +9901,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="AM42" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AN42" t="n">
         <v>0.9</v>
@@ -9921,16 +10008,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -9939,7 +10026,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -9948,7 +10035,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L43" t="n">
         <v>1.59</v>
@@ -9960,10 +10047,10 @@
         <v>5.44</v>
       </c>
       <c r="O43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q43" t="n">
         <v>9.0</v>
@@ -10011,16 +10098,16 @@
         <v>27.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH43" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI43" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ43" t="n">
         <v>9.0</v>
@@ -10029,10 +10116,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="AM43" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AN43" t="n">
         <v>1.7</v>
@@ -10136,16 +10223,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -10154,7 +10241,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I44" t="n">
         <v>2.0</v>
@@ -10163,7 +10250,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L44" t="n">
         <v>2.89</v>
@@ -10175,10 +10262,10 @@
         <v>2.47</v>
       </c>
       <c r="O44" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q44" t="n">
         <v>22.0</v>
@@ -10226,16 +10313,16 @@
         <v>24.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AG44" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH44" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI44" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ44" t="n">
         <v>6.0</v>
@@ -10244,10 +10331,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AM44" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="AN44" t="n">
         <v>2.2</v>
@@ -10351,16 +10438,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -10369,7 +10456,7 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -10378,7 +10465,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L45" t="n">
         <v>2.54</v>
@@ -10390,10 +10477,10 @@
         <v>2.88</v>
       </c>
       <c r="O45" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q45" t="n">
         <v>12.0</v>
@@ -10441,16 +10528,16 @@
         <v>23.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AG45" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH45" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI45" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ45" t="n">
         <v>3.0</v>
@@ -10459,10 +10546,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AM45" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="AN45" t="n">
         <v>0.7</v>
@@ -10566,16 +10653,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -10584,7 +10671,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -10593,7 +10680,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L46" t="n">
         <v>1.28</v>
@@ -10605,10 +10692,10 @@
         <v>9.45</v>
       </c>
       <c r="O46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q46" t="n">
         <v>19.0</v>
@@ -10656,16 +10743,16 @@
         <v>22.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AG46" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH46" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI46" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ46" t="n">
         <v>5.0</v>
@@ -10674,10 +10761,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="AM46" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="AN46" t="n">
         <v>2.0</v>
@@ -10781,16 +10868,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -10799,7 +10886,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -10808,7 +10895,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L47" t="n">
         <v>2.27</v>
@@ -10820,10 +10907,10 @@
         <v>3.24</v>
       </c>
       <c r="O47" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q47" t="n">
         <v>11.0</v>
@@ -10871,16 +10958,16 @@
         <v>32.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AG47" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH47" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI47" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ47" t="n">
         <v>8.0</v>
@@ -10889,10 +10976,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="AM47" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="AN47" t="n">
         <v>2.4</v>
@@ -10996,16 +11083,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -11014,7 +11101,7 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I48" t="n">
         <v>2.0</v>
@@ -11023,7 +11110,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L48" t="n">
         <v>1.55</v>
@@ -11035,10 +11122,10 @@
         <v>5.48</v>
       </c>
       <c r="O48" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q48" t="n">
         <v>23.0</v>
@@ -11086,16 +11173,16 @@
         <v>20.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AG48" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH48" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI48" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ48" t="n">
         <v>4.0</v>
@@ -11104,10 +11191,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AM48" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="AN48" t="n">
         <v>3.5</v>
@@ -11211,16 +11298,16 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -11229,7 +11316,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -11238,7 +11325,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L49" t="n">
         <v>2.92</v>
@@ -11250,10 +11337,10 @@
         <v>2.35</v>
       </c>
       <c r="O49" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P49" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q49" t="n">
         <v>9.0</v>
@@ -11301,16 +11388,16 @@
         <v>19.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AG49" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AH49" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AI49" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AJ49" t="n">
         <v>4.0</v>
@@ -11319,10 +11406,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="AM49" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AN49" t="n">
         <v>1.0</v>
@@ -11426,16 +11513,16 @@
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -11444,7 +11531,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
@@ -11453,7 +11540,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L50" t="n">
         <v>1.79</v>
@@ -11465,10 +11552,10 @@
         <v>4.51</v>
       </c>
       <c r="O50" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q50" t="n">
         <v>14.0</v>
@@ -11516,16 +11603,16 @@
         <v>23.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AG50" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH50" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI50" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ50" t="n">
         <v>7.0</v>
@@ -11534,10 +11621,10 @@
         <v>1.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="AM50" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AN50" t="n">
         <v>1.0</v>
@@ -11641,16 +11728,16 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -11659,7 +11746,7 @@
         <v>2.0</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -11668,7 +11755,7 @@
         <v>2.0</v>
       </c>
       <c r="K51" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L51" t="n">
         <v>1.85</v>
@@ -11680,10 +11767,10 @@
         <v>4.54</v>
       </c>
       <c r="O51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q51" t="n">
         <v>33.0</v>
@@ -11731,16 +11818,16 @@
         <v>17.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AG51" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AH51" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AI51" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AJ51" t="n">
         <v>7.0</v>
@@ -11749,10 +11836,10 @@
         <v>1.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AM51" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AN51" t="n">
         <v>2.1</v>
@@ -11849,6 +11936,2156 @@
       </c>
       <c r="BS51" t="n">
         <v>140.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>156</v>
+      </c>
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="O53" t="s">
+        <v>159</v>
+      </c>
+      <c r="P53" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>171.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O54" t="s">
+        <v>155</v>
+      </c>
+      <c r="P54" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>165</v>
+      </c>
+      <c r="P55" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O56" t="s">
+        <v>156</v>
+      </c>
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O57" t="s">
+        <v>154</v>
+      </c>
+      <c r="P57" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>152</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>152</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O58" t="s">
+        <v>156</v>
+      </c>
+      <c r="P58" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>152</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O59" t="s">
+        <v>161</v>
+      </c>
+      <c r="P59" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O60" t="s">
+        <v>156</v>
+      </c>
+      <c r="P60" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>2600.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45565.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O61" t="s">
+        <v>164</v>
+      </c>
+      <c r="P61" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>128.0</v>
       </c>
     </row>
   </sheetData>

--- a/EPL_SPREAD.xlsx
+++ b/EPL_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="356">
   <si>
     <t>Div</t>
   </si>
@@ -404,6 +404,66 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -533,6 +593,9 @@
     <t>3-2</t>
   </si>
   <si>
+    <t>5-3</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -548,9 +611,6 @@
     <t>3-12</t>
   </si>
   <si>
-    <t>5-3</t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -674,6 +734,45 @@
     <t>7-4</t>
   </si>
   <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>13-5</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -858,6 +957,66 @@
   </si>
   <si>
     <t>Bournemouth-Southampton</t>
+  </si>
+  <si>
+    <t>Crystal Palace-Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal-Southampton</t>
+  </si>
+  <si>
+    <t>Brentford-Wolves</t>
+  </si>
+  <si>
+    <t>Leicester-Bournemouth</t>
+  </si>
+  <si>
+    <t>Man City-Fulham</t>
+  </si>
+  <si>
+    <t>West Ham-Ipswich</t>
+  </si>
+  <si>
+    <t>Everton-Newcastle</t>
+  </si>
+  <si>
+    <t>Aston Villa-Man United</t>
+  </si>
+  <si>
+    <t>Chelsea-Nottm Forest</t>
+  </si>
+  <si>
+    <t>Brighton-Tottenham</t>
+  </si>
+  <si>
+    <t>Tottenham-West Ham</t>
+  </si>
+  <si>
+    <t>Fulham-Aston Villa</t>
+  </si>
+  <si>
+    <t>Ipswich-Everton</t>
+  </si>
+  <si>
+    <t>Man United-Brentford</t>
+  </si>
+  <si>
+    <t>Newcastle-Brighton</t>
+  </si>
+  <si>
+    <t>Southampton-Leicester</t>
+  </si>
+  <si>
+    <t>Bournemouth-Arsenal</t>
+  </si>
+  <si>
+    <t>Wolves-Man City</t>
+  </si>
+  <si>
+    <t>Liverpool-Chelsea</t>
+  </si>
+  <si>
+    <t>Nottm Forest-Crystal Palace</t>
   </si>
   <si>
     <t>R Jones</t>
@@ -1193,16 +1352,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1211,7 +1370,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1220,7 +1379,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L2" t="n">
         <v>1.63</v>
@@ -1232,10 +1391,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1283,16 +1442,16 @@
         <v>22.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AG2" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH2" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI2" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ2" t="n">
         <v>5.0</v>
@@ -1301,10 +1460,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AM2" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AN2" t="n">
         <v>2.4</v>
@@ -1408,16 +1567,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1426,7 +1585,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1435,7 +1594,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L3" t="n">
         <v>8.18</v>
@@ -1447,10 +1606,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1498,16 +1657,16 @@
         <v>27.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG3" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1516,10 +1675,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AM3" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="AN3" t="n">
         <v>0.5</v>
@@ -1623,16 +1782,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1641,7 +1800,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1650,7 +1809,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
         <v>1.16</v>
@@ -1662,10 +1821,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="Q4" t="n">
         <v>18.0</v>
@@ -1713,16 +1872,16 @@
         <v>31.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AG4" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH4" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI4" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1731,10 +1890,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AM4" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AN4" t="n">
         <v>1.2</v>
@@ -1838,16 +1997,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1856,7 +2015,7 @@
         <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1865,7 +2024,7 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
         <v>2.73</v>
@@ -1877,10 +2036,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q5" t="n">
         <v>9.0</v>
@@ -1928,16 +2087,16 @@
         <v>16.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AG5" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH5" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI5" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -1946,10 +2105,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AM5" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="AN5" t="n">
         <v>0.5</v>
@@ -2053,16 +2212,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2071,7 +2230,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -2080,7 +2239,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -2092,10 +2251,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q6" t="n">
         <v>3.0</v>
@@ -2143,16 +2302,16 @@
         <v>31.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="AG6" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH6" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI6" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.0</v>
@@ -2161,10 +2320,10 @@
         <v>1.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="AM6" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AN6" t="n">
         <v>0.3</v>
@@ -2268,16 +2427,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2286,7 +2445,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
@@ -2295,7 +2454,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
         <v>2.47</v>
@@ -2307,10 +2466,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="n">
         <v>14.0</v>
@@ -2358,16 +2517,16 @@
         <v>25.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AG7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2376,10 +2535,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="AM7" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AN7" t="n">
         <v>1.3</v>
@@ -2483,16 +2642,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2501,7 +2660,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
@@ -2510,7 +2669,7 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L8" t="n">
         <v>2.49</v>
@@ -2522,10 +2681,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q8" t="n">
         <v>14.0</v>
@@ -2573,16 +2732,16 @@
         <v>29.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="AG8" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH8" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI8" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ8" t="n">
         <v>3.0</v>
@@ -2591,10 +2750,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="AM8" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AN8" t="n">
         <v>2.3</v>
@@ -2698,16 +2857,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2716,7 +2875,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -2725,7 +2884,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L9" t="n">
         <v>2.5</v>
@@ -2737,10 +2896,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q9" t="n">
         <v>9.0</v>
@@ -2788,16 +2947,16 @@
         <v>21.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AG9" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH9" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI9" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.0</v>
@@ -2806,10 +2965,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="AM9" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AN9" t="n">
         <v>1.6</v>
@@ -2913,16 +3072,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2931,7 +3090,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -2940,7 +3099,7 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L10" t="n">
         <v>4.19</v>
@@ -2952,10 +3111,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q10" t="n">
         <v>10.0</v>
@@ -3003,16 +3162,16 @@
         <v>21.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AG10" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH10" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI10" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ10" t="n">
         <v>2.0</v>
@@ -3021,10 +3180,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="AM10" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AN10" t="n">
         <v>1.0</v>
@@ -3128,16 +3287,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3146,7 +3305,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3155,7 +3314,7 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L11" t="n">
         <v>5.09</v>
@@ -3167,10 +3326,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q11" t="n">
         <v>7.0</v>
@@ -3218,16 +3377,16 @@
         <v>23.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AG11" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH11" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI11" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ11" t="n">
         <v>2.0</v>
@@ -3236,10 +3395,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AM11" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AN11" t="n">
         <v>1.0</v>
@@ -3343,16 +3502,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
@@ -3361,7 +3520,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3370,7 +3529,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L12" t="n">
         <v>2.51</v>
@@ -3382,10 +3541,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q12" t="n">
         <v>14.0</v>
@@ -3433,16 +3592,16 @@
         <v>22.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AG12" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH12" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI12" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ12" t="n">
         <v>3.0</v>
@@ -3451,10 +3610,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AM12" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AN12" t="n">
         <v>2.1</v>
@@ -3558,16 +3717,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -3576,7 +3735,7 @@
         <v>2.0</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3585,7 +3744,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L13" t="n">
         <v>2.17</v>
@@ -3597,10 +3756,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q13" t="n">
         <v>14.0</v>
@@ -3648,16 +3807,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AG13" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH13" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI13" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ13" t="n">
         <v>2.0</v>
@@ -3666,10 +3825,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AM13" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AN13" t="n">
         <v>1.3</v>
@@ -3773,16 +3932,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3791,7 +3950,7 @@
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
@@ -3800,7 +3959,7 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
         <v>1.84</v>
@@ -3812,10 +3971,10 @@
         <v>4.56</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -3863,16 +4022,16 @@
         <v>27.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AG14" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH14" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI14" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.0</v>
@@ -3881,10 +4040,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AM14" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="AN14" t="n">
         <v>1.8</v>
@@ -3988,16 +4147,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F15" t="n">
         <v>4.0</v>
@@ -4006,7 +4165,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I15" t="n">
         <v>3.0</v>
@@ -4015,7 +4174,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L15" t="n">
         <v>1.08</v>
@@ -4027,10 +4186,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="Q15" t="n">
         <v>14.0</v>
@@ -4078,16 +4237,16 @@
         <v>19.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AG15" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH15" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI15" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.0</v>
@@ -4096,10 +4255,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="AM15" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="AN15" t="n">
         <v>3.3</v>
@@ -4203,16 +4362,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4221,7 +4380,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4230,7 +4389,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L16" t="n">
         <v>2.59</v>
@@ -4242,10 +4401,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4293,16 +4452,16 @@
         <v>28.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AG16" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH16" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI16" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ16" t="n">
         <v>6.0</v>
@@ -4311,10 +4470,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="AM16" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AN16" t="n">
         <v>0.1</v>
@@ -4418,16 +4577,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F17" t="n">
         <v>4.0</v>
@@ -4436,7 +4595,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4445,7 +4604,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L17" t="n">
         <v>1.45</v>
@@ -4457,10 +4616,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="Q17" t="n">
         <v>13.0</v>
@@ -4508,16 +4667,16 @@
         <v>26.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH17" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI17" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.0</v>
@@ -4526,10 +4685,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AM17" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AN17" t="n">
         <v>2.4</v>
@@ -4633,16 +4792,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -4651,7 +4810,7 @@
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -4660,7 +4819,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L18" t="n">
         <v>4.55</v>
@@ -4672,10 +4831,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q18" t="n">
         <v>11.0</v>
@@ -4723,16 +4882,16 @@
         <v>23.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH18" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI18" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ18" t="n">
         <v>4.0</v>
@@ -4741,10 +4900,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AM18" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AN18" t="n">
         <v>1.2</v>
@@ -4848,16 +5007,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -4866,7 +5025,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4875,7 +5034,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L19" t="n">
         <v>3.05</v>
@@ -4887,10 +5046,10 @@
         <v>2.28</v>
       </c>
       <c r="O19" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -4938,16 +5097,16 @@
         <v>27.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH19" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI19" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ19" t="n">
         <v>4.0</v>
@@ -4956,10 +5115,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="AM19" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="AN19" t="n">
         <v>2.2</v>
@@ -5063,16 +5222,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -5081,7 +5240,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I20" t="n">
         <v>2.0</v>
@@ -5090,7 +5249,7 @@
         <v>2.0</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L20" t="n">
         <v>4.46</v>
@@ -5102,10 +5261,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Q20" t="n">
         <v>12.0</v>
@@ -5153,16 +5312,16 @@
         <v>26.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH20" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI20" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5171,10 +5330,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AM20" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="AN20" t="n">
         <v>1.9</v>
@@ -5278,16 +5437,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5296,7 +5455,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -5305,7 +5464,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -5317,10 +5476,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="Q21" t="n">
         <v>19.0</v>
@@ -5368,16 +5527,16 @@
         <v>17.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH21" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI21" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -5386,10 +5545,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AM21" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="AN21" t="n">
         <v>2.5</v>
@@ -5493,16 +5652,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5511,7 +5670,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5520,7 +5679,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -5532,10 +5691,10 @@
         <v>8.1</v>
       </c>
       <c r="O22" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -5583,16 +5742,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH22" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI22" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ22" t="n">
         <v>5.0</v>
@@ -5601,10 +5760,10 @@
         <v>1.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="AM22" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AN22" t="n">
         <v>2.1</v>
@@ -5708,16 +5867,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -5726,7 +5885,7 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -5735,7 +5894,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L23" t="n">
         <v>1.79</v>
@@ -5747,10 +5906,10 @@
         <v>4.51</v>
       </c>
       <c r="O23" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Q23" t="n">
         <v>20.0</v>
@@ -5798,16 +5957,16 @@
         <v>17.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH23" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI23" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ23" t="n">
         <v>3.0</v>
@@ -5816,10 +5975,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="AM23" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="AN23" t="n">
         <v>2.8</v>
@@ -5923,16 +6082,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -5941,7 +6100,7 @@
         <v>3.0</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5950,7 +6109,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L24" t="n">
         <v>2.82</v>
@@ -5962,10 +6121,10 @@
         <v>2.62</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q24" t="n">
         <v>18.0</v>
@@ -6013,16 +6172,16 @@
         <v>7.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH24" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI24" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ24" t="n">
         <v>3.0</v>
@@ -6031,10 +6190,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="AN24" t="n">
         <v>1.8</v>
@@ -6138,16 +6297,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6156,7 +6315,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
@@ -6165,7 +6324,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L25" t="n">
         <v>3.14</v>
@@ -6177,10 +6336,10 @@
         <v>2.32</v>
       </c>
       <c r="O25" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q25" t="n">
         <v>11.0</v>
@@ -6228,16 +6387,16 @@
         <v>30.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH25" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI25" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ25" t="n">
         <v>5.0</v>
@@ -6246,10 +6405,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="AN25" t="n">
         <v>0.4</v>
@@ -6353,16 +6512,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6371,7 +6530,7 @@
         <v>2.0</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6380,7 +6539,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L26" t="n">
         <v>4.8</v>
@@ -6392,10 +6551,10 @@
         <v>1.71</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q26" t="n">
         <v>9.0</v>
@@ -6443,16 +6602,16 @@
         <v>34.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH26" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI26" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.0</v>
@@ -6461,10 +6620,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="AM26" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="AN26" t="n">
         <v>0.4</v>
@@ -6568,16 +6727,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -6586,7 +6745,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -6595,7 +6754,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L27" t="n">
         <v>2.02</v>
@@ -6607,10 +6766,10 @@
         <v>3.71</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q27" t="n">
         <v>16.0</v>
@@ -6658,16 +6817,16 @@
         <v>33.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH27" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI27" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -6676,10 +6835,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="AN27" t="n">
         <v>1.0</v>
@@ -6783,16 +6942,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6801,7 +6960,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6810,7 +6969,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L28" t="n">
         <v>7.69</v>
@@ -6822,10 +6981,10 @@
         <v>1.37</v>
       </c>
       <c r="O28" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -6873,16 +7032,16 @@
         <v>13.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH28" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI28" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -6891,10 +7050,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AN28" t="n">
         <v>0.7</v>
@@ -6998,16 +7157,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -7016,7 +7175,7 @@
         <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -7025,7 +7184,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L29" t="n">
         <v>1.63</v>
@@ -7037,10 +7196,10 @@
         <v>5.06</v>
       </c>
       <c r="O29" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q29" t="n">
         <v>13.0</v>
@@ -7088,16 +7247,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH29" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI29" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ29" t="n">
         <v>6.0</v>
@@ -7106,10 +7265,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7213,16 +7372,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7231,7 +7390,7 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -7240,7 +7399,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L30" t="n">
         <v>2.5</v>
@@ -7252,10 +7411,10 @@
         <v>2.62</v>
       </c>
       <c r="O30" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q30" t="n">
         <v>9.0</v>
@@ -7303,16 +7462,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH30" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI30" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.0</v>
@@ -7321,10 +7480,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AN30" t="n">
         <v>1.8</v>
@@ -7428,16 +7587,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7446,7 +7605,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7455,7 +7614,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L31" t="n">
         <v>3.93</v>
@@ -7467,10 +7626,10 @@
         <v>1.82</v>
       </c>
       <c r="O31" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q31" t="n">
         <v>8.0</v>
@@ -7518,16 +7677,16 @@
         <v>14.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH31" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI31" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ31" t="n">
         <v>5.0</v>
@@ -7536,10 +7695,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="n">
         <v>1.4</v>
@@ -7643,16 +7802,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -7661,7 +7820,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -7670,7 +7829,7 @@
         <v>2.0</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L32" t="n">
         <v>4.5</v>
@@ -7682,10 +7841,10 @@
         <v>1.74</v>
       </c>
       <c r="O32" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q32" t="n">
         <v>6.0</v>
@@ -7733,16 +7892,16 @@
         <v>25.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH32" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI32" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -7751,10 +7910,10 @@
         <v>1.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="AN32" t="n">
         <v>1.1</v>
@@ -7858,16 +8017,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -7876,7 +8035,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -7885,7 +8044,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -7897,10 +8056,10 @@
         <v>8.05</v>
       </c>
       <c r="O33" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="Q33" t="n">
         <v>21.0</v>
@@ -7948,16 +8107,16 @@
         <v>30.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH33" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI33" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ33" t="n">
         <v>7.0</v>
@@ -7966,10 +8125,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AN33" t="n">
         <v>1.6</v>
@@ -8073,16 +8232,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -8091,7 +8250,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -8100,7 +8259,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L34" t="n">
         <v>1.62</v>
@@ -8112,10 +8271,10 @@
         <v>5.48</v>
       </c>
       <c r="O34" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q34" t="n">
         <v>20.0</v>
@@ -8163,16 +8322,16 @@
         <v>26.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH34" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI34" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ34" t="n">
         <v>3.0</v>
@@ -8181,10 +8340,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AN34" t="n">
         <v>2.5</v>
@@ -8288,16 +8447,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8306,7 +8465,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -8315,7 +8474,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L35" t="n">
         <v>2.4</v>
@@ -8327,10 +8486,10 @@
         <v>2.97</v>
       </c>
       <c r="O35" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q35" t="n">
         <v>21.0</v>
@@ -8378,16 +8537,16 @@
         <v>33.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AG35" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH35" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI35" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -8396,10 +8555,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="AM35" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="n">
         <v>1.5</v>
@@ -8503,16 +8662,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -8521,7 +8680,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -8530,7 +8689,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L36" t="n">
         <v>1.21</v>
@@ -8542,10 +8701,10 @@
         <v>12.71</v>
       </c>
       <c r="O36" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q36" t="n">
         <v>14.0</v>
@@ -8593,16 +8752,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG36" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH36" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI36" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.0</v>
@@ -8611,10 +8770,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="n">
         <v>0.9</v>
@@ -8718,16 +8877,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -8736,7 +8895,7 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
@@ -8745,7 +8904,7 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L37" t="n">
         <v>1.17</v>
@@ -8757,10 +8916,10 @@
         <v>14.62</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q37" t="n">
         <v>18.0</v>
@@ -8808,16 +8967,16 @@
         <v>12.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AG37" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH37" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI37" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ37" t="n">
         <v>4.0</v>
@@ -8826,10 +8985,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="n">
         <v>2.1</v>
@@ -8933,16 +9092,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F38" t="n">
         <v>3.0</v>
@@ -8951,7 +9110,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -8960,7 +9119,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L38" t="n">
         <v>1.51</v>
@@ -8972,10 +9131,10 @@
         <v>6.48</v>
       </c>
       <c r="O38" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Q38" t="n">
         <v>17.0</v>
@@ -9023,16 +9182,16 @@
         <v>22.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AG38" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH38" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI38" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ38" t="n">
         <v>5.0</v>
@@ -9041,10 +9200,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="n">
         <v>2.1</v>
@@ -9148,16 +9307,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -9166,7 +9325,7 @@
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -9175,7 +9334,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L39" t="n">
         <v>3.32</v>
@@ -9187,10 +9346,10 @@
         <v>2.06</v>
       </c>
       <c r="O39" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q39" t="n">
         <v>19.0</v>
@@ -9238,16 +9397,16 @@
         <v>25.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH39" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI39" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ39" t="n">
         <v>14.0</v>
@@ -9256,10 +9415,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="n">
         <v>1.7</v>
@@ -9363,16 +9522,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -9381,7 +9540,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -9390,7 +9549,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L40" t="n">
         <v>3.03</v>
@@ -9402,10 +9561,10 @@
         <v>2.32</v>
       </c>
       <c r="O40" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q40" t="n">
         <v>15.0</v>
@@ -9453,16 +9612,16 @@
         <v>23.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AG40" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH40" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI40" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -9471,10 +9630,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="AM40" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="n">
         <v>0.7</v>
@@ -9578,16 +9737,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9596,7 +9755,7 @@
         <v>2.0</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -9605,7 +9764,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L41" t="n">
         <v>3.41</v>
@@ -9617,10 +9776,10 @@
         <v>2.1</v>
       </c>
       <c r="O41" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q41" t="n">
         <v>12.0</v>
@@ -9668,16 +9827,16 @@
         <v>23.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AG41" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH41" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI41" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ41" t="n">
         <v>6.0</v>
@@ -9686,10 +9845,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AM41" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AN41" t="n">
         <v>1.2</v>
@@ -9793,16 +9952,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -9811,7 +9970,7 @@
         <v>3.0</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -9820,7 +9979,7 @@
         <v>2.0</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L42" t="n">
         <v>3.59</v>
@@ -9832,10 +9991,10 @@
         <v>1.99</v>
       </c>
       <c r="O42" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q42" t="n">
         <v>15.0</v>
@@ -9883,16 +10042,16 @@
         <v>26.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH42" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI42" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ42" t="n">
         <v>7.0</v>
@@ -9901,10 +10060,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AM42" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AN42" t="n">
         <v>0.9</v>
@@ -10008,16 +10167,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -10026,7 +10185,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -10035,7 +10194,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L43" t="n">
         <v>1.59</v>
@@ -10047,10 +10206,10 @@
         <v>5.44</v>
       </c>
       <c r="O43" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Q43" t="n">
         <v>9.0</v>
@@ -10098,16 +10257,16 @@
         <v>27.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AG43" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH43" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI43" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ43" t="n">
         <v>9.0</v>
@@ -10116,10 +10275,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="n">
         <v>1.7</v>
@@ -10223,16 +10382,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -10241,7 +10400,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I44" t="n">
         <v>2.0</v>
@@ -10250,7 +10409,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L44" t="n">
         <v>2.89</v>
@@ -10262,10 +10421,10 @@
         <v>2.47</v>
       </c>
       <c r="O44" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Q44" t="n">
         <v>22.0</v>
@@ -10313,16 +10472,16 @@
         <v>24.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AG44" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH44" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI44" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ44" t="n">
         <v>6.0</v>
@@ -10331,10 +10490,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="n">
         <v>2.2</v>
@@ -10438,16 +10597,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -10456,7 +10615,7 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -10465,7 +10624,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L45" t="n">
         <v>2.54</v>
@@ -10477,10 +10636,10 @@
         <v>2.88</v>
       </c>
       <c r="O45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q45" t="n">
         <v>12.0</v>
@@ -10528,16 +10687,16 @@
         <v>23.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AG45" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH45" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI45" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ45" t="n">
         <v>3.0</v>
@@ -10546,10 +10705,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AM45" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="n">
         <v>0.7</v>
@@ -10653,16 +10812,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -10671,7 +10830,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -10680,7 +10839,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L46" t="n">
         <v>1.28</v>
@@ -10692,10 +10851,10 @@
         <v>9.45</v>
       </c>
       <c r="O46" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Q46" t="n">
         <v>19.0</v>
@@ -10743,16 +10902,16 @@
         <v>22.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH46" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI46" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ46" t="n">
         <v>5.0</v>
@@ -10761,10 +10920,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AN46" t="n">
         <v>2.0</v>
@@ -10868,16 +11027,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -10886,7 +11045,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -10895,7 +11054,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L47" t="n">
         <v>2.27</v>
@@ -10907,10 +11066,10 @@
         <v>3.24</v>
       </c>
       <c r="O47" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q47" t="n">
         <v>11.0</v>
@@ -10958,16 +11117,16 @@
         <v>32.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG47" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH47" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI47" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ47" t="n">
         <v>8.0</v>
@@ -10976,10 +11135,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AM47" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="n">
         <v>2.4</v>
@@ -11083,16 +11242,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -11101,7 +11260,7 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I48" t="n">
         <v>2.0</v>
@@ -11110,7 +11269,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L48" t="n">
         <v>1.55</v>
@@ -11122,10 +11281,10 @@
         <v>5.48</v>
       </c>
       <c r="O48" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Q48" t="n">
         <v>23.0</v>
@@ -11173,16 +11332,16 @@
         <v>20.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AG48" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH48" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI48" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ48" t="n">
         <v>4.0</v>
@@ -11191,10 +11350,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="n">
         <v>3.5</v>
@@ -11298,16 +11457,16 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -11316,7 +11475,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -11325,7 +11484,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L49" t="n">
         <v>2.92</v>
@@ -11337,10 +11496,10 @@
         <v>2.35</v>
       </c>
       <c r="O49" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="Q49" t="n">
         <v>9.0</v>
@@ -11388,16 +11547,16 @@
         <v>19.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AG49" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH49" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI49" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ49" t="n">
         <v>4.0</v>
@@ -11406,10 +11565,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="AM49" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="AN49" t="n">
         <v>1.0</v>
@@ -11513,16 +11672,16 @@
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -11531,7 +11690,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
@@ -11540,7 +11699,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L50" t="n">
         <v>1.79</v>
@@ -11552,10 +11711,10 @@
         <v>4.51</v>
       </c>
       <c r="O50" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q50" t="n">
         <v>14.0</v>
@@ -11603,16 +11762,16 @@
         <v>23.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AG50" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH50" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI50" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ50" t="n">
         <v>7.0</v>
@@ -11621,10 +11780,10 @@
         <v>1.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AM50" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AN50" t="n">
         <v>1.0</v>
@@ -11728,16 +11887,16 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -11746,7 +11905,7 @@
         <v>2.0</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -11755,7 +11914,7 @@
         <v>2.0</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L51" t="n">
         <v>1.85</v>
@@ -11767,10 +11926,10 @@
         <v>4.54</v>
       </c>
       <c r="O51" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q51" t="n">
         <v>33.0</v>
@@ -11818,16 +11977,16 @@
         <v>17.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AG51" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH51" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI51" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ51" t="n">
         <v>7.0</v>
@@ -11836,10 +11995,10 @@
         <v>1.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AN51" t="n">
         <v>2.1</v>
@@ -11943,16 +12102,16 @@
         <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F52" t="n">
         <v>1.0</v>
@@ -11961,7 +12120,7 @@
         <v>1.0</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -11970,7 +12129,7 @@
         <v>1.0</v>
       </c>
       <c r="K52" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L52" t="n">
         <v>5.18</v>
@@ -11982,10 +12141,10 @@
         <v>1.6</v>
       </c>
       <c r="O52" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q52" t="n">
         <v>11.0</v>
@@ -12033,16 +12192,16 @@
         <v>24.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AG52" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH52" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI52" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ52" t="n">
         <v>8.0</v>
@@ -12051,10 +12210,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AM52" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AN52" t="n">
         <v>1.6</v>
@@ -12158,16 +12317,16 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F53" t="n">
         <v>4.0</v>
@@ -12176,7 +12335,7 @@
         <v>2.0</v>
       </c>
       <c r="H53" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I53" t="n">
         <v>2.0</v>
@@ -12185,7 +12344,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L53" t="n">
         <v>1.18</v>
@@ -12197,10 +12356,10 @@
         <v>14.09</v>
       </c>
       <c r="O53" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q53" t="n">
         <v>36.0</v>
@@ -12248,16 +12407,16 @@
         <v>17.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AG53" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH53" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI53" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ53" t="n">
         <v>6.0</v>
@@ -12266,10 +12425,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AM53" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AN53" t="n">
         <v>4.4</v>
@@ -12373,16 +12532,16 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F54" t="n">
         <v>1.0</v>
@@ -12391,7 +12550,7 @@
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -12400,7 +12559,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L54" t="n">
         <v>2.23</v>
@@ -12412,10 +12571,10 @@
         <v>3.22</v>
       </c>
       <c r="O54" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q54" t="n">
         <v>8.0</v>
@@ -12463,16 +12622,16 @@
         <v>13.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AG54" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH54" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI54" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ54" t="n">
         <v>5.0</v>
@@ -12481,10 +12640,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AM54" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="AN54" t="n">
         <v>0.4</v>
@@ -12588,16 +12747,16 @@
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F55" t="n">
         <v>4.0</v>
@@ -12606,7 +12765,7 @@
         <v>2.0</v>
       </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I55" t="n">
         <v>4.0</v>
@@ -12615,7 +12774,7 @@
         <v>2.0</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L55" t="n">
         <v>1.75</v>
@@ -12627,10 +12786,10 @@
         <v>4.32</v>
       </c>
       <c r="O55" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q55" t="n">
         <v>15.0</v>
@@ -12678,16 +12837,16 @@
         <v>19.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AG55" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH55" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI55" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ55" t="n">
         <v>5.0</v>
@@ -12696,10 +12855,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AM55" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="n">
         <v>4.2</v>
@@ -12803,16 +12962,16 @@
         <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -12821,7 +12980,7 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
@@ -12830,7 +12989,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L56" t="n">
         <v>2.76</v>
@@ -12842,10 +13001,10 @@
         <v>2.69</v>
       </c>
       <c r="O56" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q56" t="n">
         <v>8.0</v>
@@ -12893,16 +13052,16 @@
         <v>24.0</v>
       </c>
       <c r="AF56" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AG56" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH56" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI56" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ56" t="n">
         <v>3.0</v>
@@ -12911,10 +13070,10 @@
         <v>0.0</v>
       </c>
       <c r="AL56" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AM56" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="AN56" t="n">
         <v>0.9</v>
@@ -13018,16 +13177,16 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -13036,7 +13195,7 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
@@ -13045,7 +13204,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L57" t="n">
         <v>2.49</v>
@@ -13057,10 +13216,10 @@
         <v>3.03</v>
       </c>
       <c r="O57" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q57" t="n">
         <v>11.0</v>
@@ -13108,16 +13267,16 @@
         <v>26.0</v>
       </c>
       <c r="AF57" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AG57" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AH57" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AI57" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ57" t="n">
         <v>6.0</v>
@@ -13126,10 +13285,10 @@
         <v>0.0</v>
       </c>
       <c r="AL57" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AM57" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="AN57" t="n">
         <v>0.8</v>
@@ -13233,16 +13392,16 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F58" t="n">
         <v>1.0</v>
@@ -13251,7 +13410,7 @@
         <v>2.0</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
@@ -13260,7 +13419,7 @@
         <v>1.0</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L58" t="n">
         <v>8.09</v>
@@ -13272,10 +13431,10 @@
         <v>1.36</v>
       </c>
       <c r="O58" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q58" t="n">
         <v>8.0</v>
@@ -13323,16 +13482,16 @@
         <v>24.0</v>
       </c>
       <c r="AF58" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH58" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI58" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ58" t="n">
         <v>5.0</v>
@@ -13341,10 +13500,10 @@
         <v>0.0</v>
       </c>
       <c r="AL58" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="AM58" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AN58" t="n">
         <v>0.6</v>
@@ -13448,16 +13607,16 @@
         <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
@@ -13466,7 +13625,7 @@
         <v>2.0</v>
       </c>
       <c r="H59" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I59" t="n">
         <v>1.0</v>
@@ -13475,7 +13634,7 @@
         <v>2.0</v>
       </c>
       <c r="K59" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L59" t="n">
         <v>4.34</v>
@@ -13487,10 +13646,10 @@
         <v>1.85</v>
       </c>
       <c r="O59" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q59" t="n">
         <v>15.0</v>
@@ -13538,16 +13697,16 @@
         <v>24.0</v>
       </c>
       <c r="AF59" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AG59" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH59" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI59" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ59" t="n">
         <v>5.0</v>
@@ -13556,10 +13715,10 @@
         <v>0.0</v>
       </c>
       <c r="AL59" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AM59" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="AN59" t="n">
         <v>1.2</v>
@@ -13663,16 +13822,16 @@
         <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -13681,7 +13840,7 @@
         <v>3.0</v>
       </c>
       <c r="H60" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -13690,7 +13849,7 @@
         <v>1.0</v>
       </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L60" t="n">
         <v>2.42</v>
@@ -13702,10 +13861,10 @@
         <v>2.75</v>
       </c>
       <c r="O60" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q60" t="n">
         <v>11.0</v>
@@ -13753,16 +13912,16 @@
         <v>30.0</v>
       </c>
       <c r="AF60" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="AG60" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH60" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI60" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AJ60" t="n">
         <v>8.0</v>
@@ -13771,10 +13930,10 @@
         <v>1.0</v>
       </c>
       <c r="AL60" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="AM60" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AN60" t="n">
         <v>1.0</v>
@@ -13878,16 +14037,16 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>45565.0</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -13896,7 +14055,7 @@
         <v>1.0</v>
       </c>
       <c r="H61" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I61" t="n">
         <v>3.0</v>
@@ -13905,7 +14064,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L61" t="n">
         <v>1.65</v>
@@ -13917,10 +14076,10 @@
         <v>5.01</v>
       </c>
       <c r="O61" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Q61" t="n">
         <v>14.0</v>
@@ -13968,16 +14127,16 @@
         <v>31.0</v>
       </c>
       <c r="AF61" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AG61" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AH61" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AI61" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AJ61" t="n">
         <v>7.0</v>
@@ -13986,10 +14145,10 @@
         <v>0.0</v>
       </c>
       <c r="AL61" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="AM61" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="AN61" t="n">
         <v>1.3</v>
@@ -14086,6 +14245,4306 @@
       </c>
       <c r="BS61" t="n">
         <v>128.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>172</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>176</v>
+      </c>
+      <c r="P62" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>171</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="N63" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="O63" t="s">
+        <v>174</v>
+      </c>
+      <c r="P63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>171</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O64" t="s">
+        <v>185</v>
+      </c>
+      <c r="P64" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>194.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="O65" t="s">
+        <v>175</v>
+      </c>
+      <c r="P65" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>171</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>173</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M66" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="O66" t="s">
+        <v>177</v>
+      </c>
+      <c r="P66" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>171</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O67" t="s">
+        <v>183</v>
+      </c>
+      <c r="P67" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>173</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>174</v>
+      </c>
+      <c r="P68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>173</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O69" t="s">
+        <v>174</v>
+      </c>
+      <c r="P69" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>173</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>174</v>
+      </c>
+      <c r="P70" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>127.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O71" t="s">
+        <v>182</v>
+      </c>
+      <c r="P71" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>171</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>173</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="O72" t="s">
+        <v>177</v>
+      </c>
+      <c r="P72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>164.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
+        <v>167</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>172</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>173</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O73" t="s">
+        <v>177</v>
+      </c>
+      <c r="P73" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>181.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>172</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>172</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O74" t="s">
+        <v>182</v>
+      </c>
+      <c r="P74" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>171</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>172</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O75" t="s">
+        <v>176</v>
+      </c>
+      <c r="P75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>172</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O76" t="s">
+        <v>176</v>
+      </c>
+      <c r="P76" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>172</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O77" t="s">
+        <v>179</v>
+      </c>
+      <c r="P77" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2600.0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>188.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>173</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O78" t="s">
+        <v>174</v>
+      </c>
+      <c r="P78" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>173</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O79" t="s">
+        <v>177</v>
+      </c>
+      <c r="P79" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>127.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>171</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="O80" t="s">
+        <v>175</v>
+      </c>
+      <c r="P80" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="n" s="2">
+        <v>45586.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>171</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>173</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>76.0</v>
       </c>
     </row>
   </sheetData>
